--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +37,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -52,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,22 +85,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -105,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,39 +122,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -180,33 +146,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,222 +460,265 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F14:F15"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43274</v>
+        <v>43464</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3420</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>3912</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>1266</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43344</v>
+      <c r="C3" s="3">
+        <v>1467</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43545</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3635</v>
+        <v>4057</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D13" si="0">C4-C2</f>
-        <v>215</v>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>145</v>
       </c>
       <c r="E4" s="3">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>967.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>662.65000000000009</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>782.15000000000009</v>
+      </c>
+      <c r="H4" s="10">
+        <v>782.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1363</v>
+        <v>1517</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>227.95000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43464</v>
+        <v>119.5</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43640</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>3912</v>
+        <v>4397</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="E6" s="3">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>1246.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1553.8000000000002</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>1862.1100000000001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1862.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1467</v>
+        <v>1646</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>244.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>43545</v>
+        <v>308.31</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43782</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>4057</v>
+        <v>4597</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>662.65000000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+        <f>D8*E8</f>
+        <v>898</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>1262.5</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1262.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1517</v>
+        <v>1796</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E9" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>119.5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <f>D9*E9</f>
+        <v>364.5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>43640</v>
+      <c r="A10" s="9">
+        <v>43886</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>4397</v>
+        <v>4797</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>340</v>
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>1553.8000000000002</v>
+        <f>D10*E10</f>
+        <v>898</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>1262.5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1262.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,175 +727,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1646</v>
+        <v>1946</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>308.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>43782</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4597</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1796</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>364.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>43886</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4797</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="2">C14-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1946</v>
-      </c>
-      <c r="D15" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
         <v>364.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G4:G11)</f>
+        <v>5169.26</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H4:H11)</f>
+        <v>5169.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>нач пени  124 д</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,32 +750,112 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5502</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
+        <v>705</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>3165.4500000000003</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>3593.13</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3593.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2122</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>427.68</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>301.82</v>
+      </c>
+      <c r="G14" s="2">
+        <v>301.82</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="10">
-        <f>SUM(G4:G11)</f>
-        <v>5169.26</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H4:H11)</f>
-        <v>5169.26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G15" s="10">
+        <f>SUM(G4:G14)</f>
+        <v>9064.2099999999991</v>
+      </c>
+      <c r="H15" s="10">
+        <f>SUM(H4:H14)</f>
+        <v>8762.380000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10">
+        <f>SUM(H15,-G15)</f>
+        <v>-301.82999999999811</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -132,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -159,6 +166,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,7 +683,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>898</v>
       </c>
       <c r="G8" s="10">
@@ -692,7 +710,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>364.5</v>
       </c>
       <c r="G9" s="2"/>
@@ -709,14 +727,14 @@
         <v>4797</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
         <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>898</v>
       </c>
       <c r="G10" s="10">
@@ -736,14 +754,14 @@
         <v>1946</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>364.5</v>
       </c>
       <c r="G11" s="2"/>
@@ -760,14 +778,14 @@
         <v>5502</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
         <v>705</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>3165.4500000000003</v>
       </c>
       <c r="G12" s="10">
@@ -787,74 +805,125 @@
         <v>2122</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>427.68</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>44012</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="13">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="14">
         <v>301.82</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="15">
         <v>301.82</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
+      <c r="A15" s="9">
+        <v>44054</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5702</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:F16" si="5">D15*E15</f>
+        <v>942</v>
+      </c>
+      <c r="G15" s="10">
+        <f>SUM(F15,F16)</f>
+        <v>1197</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2222</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C13</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10">
-        <f>SUM(G4:G14)</f>
-        <v>9064.2099999999991</v>
-      </c>
-      <c r="H15" s="10">
-        <f>SUM(H4:H14)</f>
-        <v>8762.380000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10">
-        <f>SUM(H15,-G15)</f>
-        <v>-301.82999999999811</v>
+      <c r="G17" s="10">
+        <f>SUM(G4:G16)</f>
+        <v>10261.209999999999</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUM(H4:H16)</f>
+        <v>9903.380000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10">
+        <f>SUM(H17,-G17)</f>
+        <v>-357.82999999999811</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -484,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H18" sqref="H3:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,34 +896,85 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
+      <c r="A17" s="9">
+        <v>44095</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5727</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C15</f>
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:F18" si="6">D17*E17</f>
+        <v>117.75</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM(F17,F18)</f>
+        <v>120.3</v>
+      </c>
+      <c r="H17" s="10">
+        <v>114.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2223</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C16</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="6"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="10">
-        <f>SUM(G4:G16)</f>
-        <v>10261.209999999999</v>
-      </c>
-      <c r="H17" s="10">
-        <f>SUM(H4:H16)</f>
-        <v>9903.380000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10">
-        <f>SUM(H17,-G17)</f>
-        <v>-357.82999999999811</v>
+      <c r="G19" s="10">
+        <f>SUM(G4:G18)</f>
+        <v>10381.509999999998</v>
+      </c>
+      <c r="H19" s="10">
+        <f>SUM(H4:H18)</f>
+        <v>10018.060000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10">
+        <f>SUM(H19,-G19)</f>
+        <v>-363.44999999999709</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>нач пени  124 д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплачены пени </t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H3:H18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -947,34 +950,111 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+      <c r="A19" s="9">
+        <v>44146</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5887</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C17</f>
+        <v>160</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F20" si="7">D19*E19</f>
+        <v>753.6</v>
+      </c>
+      <c r="G19" s="10">
+        <f>SUM(F19,F20)</f>
+        <v>855.6</v>
+      </c>
+      <c r="H19" s="10">
+        <v>855.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2263</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C18</f>
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44146</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>363.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10">
-        <f>SUM(G4:G18)</f>
-        <v>10381.509999999998</v>
-      </c>
-      <c r="H19" s="10">
-        <f>SUM(H4:H18)</f>
-        <v>10018.060000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10">
-        <f>SUM(H19,-G19)</f>
-        <v>-363.44999999999709</v>
+      <c r="G22" s="10">
+        <f>SUM(G4:G21)</f>
+        <v>11237.109999999999</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H4:H21)</f>
+        <v>11237.110000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
+        <v>3.637978807091713E-12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>5887</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
         <v>160</v>
       </c>
       <c r="E4" s="3">
@@ -541,22 +541,53 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="4">
+        <v>44288</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6047</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>160</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>753.6</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>855.6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>855.6</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2303</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>

--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,22 +592,53 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6437</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>390</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>1836.9</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>2474.4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2480</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2553</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="5"/>
+        <v>637.5</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
@@ -618,7 +649,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -648,7 +679,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -658,7 +689,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -672,20 +703,54 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/181ee.xlsx
+++ b/sputnik/personal/ee/181ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,22 +643,53 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6753</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>316</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>1488.36</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1689.81</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1692</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2632</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="7"/>
+        <v>201.45</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
@@ -669,7 +700,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -699,7 +730,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -709,7 +740,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,14 +754,24 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -739,8 +780,8 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -749,8 +790,28 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
